--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>班級</t>
   </si>
@@ -40,7 +40,10 @@
     <t>2023-06-19 13:42:16</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>2023-06-19 13:42:25</t>
+  </si>
+  <si>
+    <t>OUT</t>
   </si>
 </sst>
 </file>
@@ -437,8 +440,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>班級</t>
   </si>
@@ -37,13 +37,10 @@
     <t>蔡*婷</t>
   </si>
   <si>
-    <t>2023-06-19 13:42:16</t>
-  </si>
-  <si>
-    <t>2023-06-19 13:42:25</t>
-  </si>
-  <si>
-    <t>OUT</t>
+    <t>2023-06-19 13:46:39</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -440,11 +437,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -37,7 +37,7 @@
     <t>蔡*婷</t>
   </si>
   <si>
-    <t>2023-06-19 13:46:39</t>
+    <t>2023-06-19 13:49:41</t>
   </si>
   <si>
     <t>IN</t>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -37,7 +37,7 @@
     <t>中之敏</t>
   </si>
   <si>
-    <t>2023-06-19 14:03:35</t>
+    <t>2023-06-19 14:08:19</t>
   </si>
   <si>
     <t>IN</t>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -37,7 +37,7 @@
     <t>中之敏</t>
   </si>
   <si>
-    <t>2023-06-19 14:08:19</t>
+    <t>2023-06-19 14:11:56</t>
   </si>
   <si>
     <t>IN</t>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -37,7 +37,7 @@
     <t>中之敏</t>
   </si>
   <si>
-    <t>2023-06-19 14:11:56</t>
+    <t>2023-06-19 14:17:03</t>
   </si>
   <si>
     <t>IN</t>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>班級</t>
   </si>
@@ -40,7 +40,10 @@
     <t>2023-06-19 14:17:03</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>2023-06-19 14:19:08</t>
+  </si>
+  <si>
+    <t>OUT</t>
   </si>
 </sst>
 </file>
@@ -437,8 +440,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2023-06-19 Monday.xlsx
+++ b/2023-06-19 Monday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>班級</t>
   </si>
@@ -37,13 +37,10 @@
     <t>中之敏</t>
   </si>
   <si>
-    <t>2023-06-19 14:17:03</t>
-  </si>
-  <si>
-    <t>2023-06-19 14:19:08</t>
-  </si>
-  <si>
-    <t>OUT</t>
+    <t>2023-06-19 14:25:25</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -440,11 +437,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
